--- a/White list.xlsx
+++ b/White list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6358777B-E595-46D5-9D84-CDF9672FA54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1953979C-8727-40B1-AE9B-87D2F2FFB2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KOR_Credit Card&amp;E-Wallets" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>SamsungPay</t>
   </si>
@@ -304,6 +304,14 @@
   </si>
   <si>
     <t>AOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shinhan Super SOL App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.shinhan.smartcaremgr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,13 +776,13 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="135.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="48.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1054,6 +1062,12 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>71</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">

--- a/White list.xlsx
+++ b/White list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1953979C-8727-40B1-AE9B-87D2F2FFB2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E40466-6745-4272-8D40-23EE8564535D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>SamsungPay</t>
   </si>
@@ -312,6 +312,22 @@
   </si>
   <si>
     <t>com.shinhan.smartcaremgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.ib.android.smcard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samsung Card APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>                           &lt;string&gt;monimopayauth&lt;/string&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>                                                  &lt;string&gt;monimopay&lt;/string&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,13 +444,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -773,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -790,10 +812,10 @@
       <c r="A1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="9"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -807,7 +829,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -818,7 +840,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -829,7 +851,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -840,7 +862,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -851,7 +873,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -862,7 +884,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -873,7 +895,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -884,7 +906,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="11" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -895,7 +917,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -906,7 +928,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -917,7 +939,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -928,7 +950,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -939,7 +961,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -950,7 +972,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -961,7 +983,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -972,7 +994,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -983,7 +1005,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -994,7 +1016,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1005,7 +1027,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1016,7 +1038,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1027,7 +1049,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="11" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1038,7 +1060,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1049,7 +1071,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1060,7 +1082,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1071,83 +1093,99 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="11" t="s">
         <v>72</v>
       </c>
+      <c r="C27" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="11" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
